--- a/数据库构建.xlsx
+++ b/数据库构建.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XiaoweiShen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myData\小程序\文创\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E2F9EF-B002-4703-8E4B-3F833FA62C7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D86E4DC-3AC3-4844-BFA0-AB87EA668F55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" xr2:uid="{AF03436F-C118-4835-B4E0-8528DD14790F}"/>
+    <workbookView xWindow="1730" yWindow="2470" windowWidth="19200" windowHeight="11630" xr2:uid="{AF03436F-C118-4835-B4E0-8528DD14790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="99">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prisucts_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -416,6 +412,14 @@
   </si>
   <si>
     <t>稿件种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>products_likes_group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞的客户id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -873,16 +877,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02C83B1-E108-41FB-A8A7-B2BA677E1821}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="9" customWidth="1"/>
     <col min="2" max="2" width="10.9140625" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="19.58203125" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
   </cols>
@@ -911,7 +916,7 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>15</v>
@@ -928,7 +933,7 @@
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
@@ -943,22 +948,22 @@
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>6</v>
@@ -973,7 +978,7 @@
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
@@ -988,31 +993,31 @@
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -1025,7 +1030,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1047,10 +1052,10 @@
     </row>
     <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>8</v>
@@ -1067,7 +1072,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>8</v>
@@ -1124,13 +1129,13 @@
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>10</v>
@@ -1138,41 +1143,41 @@
     </row>
     <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="C19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>66</v>
-      </c>
       <c r="C21" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>10</v>
@@ -1180,81 +1185,66 @@
     </row>
     <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>8</v>
@@ -1262,17 +1252,19 @@
       <c r="D28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>10</v>
@@ -1281,13 +1273,13 @@
     </row>
     <row r="30" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>10</v>
@@ -1296,124 +1288,124 @@
     </row>
     <row r="31" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="D35" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>10</v>
@@ -1422,13 +1414,13 @@
     </row>
     <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>10</v>
@@ -1437,106 +1429,104 @@
     </row>
     <row r="42" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="C46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>8</v>
@@ -1544,17 +1534,19 @@
       <c r="D50" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="51" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>10</v>
@@ -1563,10 +1555,10 @@
     </row>
     <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>8</v>
@@ -1578,78 +1570,76 @@
     </row>
     <row r="53" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="D55" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="6"/>
     </row>
     <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>8</v>
@@ -1657,47 +1647,79 @@
       <c r="D59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="60" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" s="6" t="s">
+      <c r="C64" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/数据库构建.xlsx
+++ b/数据库构建.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myData\小程序\文创\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D86E4DC-3AC3-4844-BFA0-AB87EA668F55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971E1895-CD9E-4C14-88A3-7510FA7F1E48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1730" yWindow="2470" windowWidth="19200" windowHeight="11630" xr2:uid="{AF03436F-C118-4835-B4E0-8528DD14790F}"/>
+    <workbookView xWindow="4290" yWindow="1950" windowWidth="19200" windowHeight="12970" xr2:uid="{AF03436F-C118-4835-B4E0-8528DD14790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="109">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -420,6 +420,46 @@
   </si>
   <si>
     <t>点赞的客户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>products_is_recomd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否被推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>products_uptime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上架时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numberi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精选商品表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上推时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +493,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,6 +530,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -514,7 +560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -561,6 +607,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -877,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02C83B1-E108-41FB-A8A7-B2BA677E1821}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1211,515 +1263,606 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+    <row r="24" spans="1:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+    <row r="29" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="C29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="C30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="C31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="D33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="C34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+      <c r="D36" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="C40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+    <row r="41" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+      <c r="D41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+      <c r="D42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="D43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+      <c r="D44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+      <c r="C45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+      <c r="D46" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
+      <c r="C47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
+    <row r="51" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B51" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="5" t="s">
+      <c r="C51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
+    <row r="52" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B52" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
+      <c r="C52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B53" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
+      <c r="C53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B54" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
+      <c r="D54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B55" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
+      <c r="C55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
+      <c r="D56" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+    <row r="59" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
+    <row r="60" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B60" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="5" t="s">
+      <c r="C60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
+    <row r="61" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B61" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
+      <c r="C61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B62" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
+      <c r="C62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B63" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
+      <c r="D63" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B64" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="C64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
+    <row r="65" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D65" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="17" t="s">
         <v>10</v>
       </c>
     </row>

--- a/数据库构建.xlsx
+++ b/数据库构建.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myData\小程序\文创\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971E1895-CD9E-4C14-88A3-7510FA7F1E48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FA59FE-0FFC-47F3-AB1E-56DDD495AD52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="1950" windowWidth="19200" windowHeight="12970" xr2:uid="{AF03436F-C118-4835-B4E0-8528DD14790F}"/>
+    <workbookView xWindow="1560" yWindow="2830" windowWidth="19200" windowHeight="12970" xr2:uid="{AF03436F-C118-4835-B4E0-8528DD14790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,11 +455,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>up_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上推时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -932,7 +932,7 @@
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1854,10 +1854,10 @@
     </row>
     <row r="71" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" s="17" t="s">
         <v>107</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>108</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>20</v>

--- a/数据库构建.xlsx
+++ b/数据库构建.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myData\小程序\文创\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FA59FE-0FFC-47F3-AB1E-56DDD495AD52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62AA600-9C1B-43E4-BDA2-CD68AC6C7708}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="2830" windowWidth="19200" windowHeight="12970" xr2:uid="{AF03436F-C118-4835-B4E0-8528DD14790F}"/>
+    <workbookView xWindow="5910" yWindow="2030" windowWidth="19200" windowHeight="12970" xr2:uid="{AF03436F-C118-4835-B4E0-8528DD14790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="103">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,14 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>products_likes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜欢/点赞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comment_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,22 +404,6 @@
   </si>
   <si>
     <t>稿件种类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>products_likes_group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞的客户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>products_is_recomd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否被推荐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -929,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02C83B1-E108-41FB-A8A7-B2BA677E1821}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1235,634 +1211,592 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C51" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D53" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="15" t="s">
+    <row r="62" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+    </row>
+    <row r="65" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B67" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="C67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="C68" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="6"/>
-    </row>
-    <row r="55" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" s="17" t="s">
+      <c r="D68" s="17" t="s">
         <v>10</v>
       </c>
     </row>
